--- a/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids_syn_5\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64F0689E-0AAB-4DC3-AAAF-56673133A6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDECA641-CB1C-4578-A23E-F09F3A0AFAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{6F9F5C1E-5462-4DBB-9EE2-AB47CB7BEEF1}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{66F61289-FFB2-4827-95AA-1420FEE0F126}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1100,7 +1100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275D2A77-0BA8-4698-91E7-D9A00B253235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8797C33-A814-4820-B5AB-3A02A9EB3DCF}">
   <dimension ref="B3:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
